--- a/output_files/test_cat.csv_toCHU.xlsx
+++ b/output_files/test_cat.csv_toCHU.xlsx
@@ -486,7 +486,7 @@
     <row r="2" ht="10" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Date: 09 Nov 2025</t>
+          <t>Date: 11 Nov 2025</t>
         </is>
       </c>
       <c r="B2" s="3" t="n"/>
